--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,86; 75,85</t>
+          <t>57,64; 76,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,37; 76,0</t>
+          <t>61,94; 75,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,85; 74,85</t>
+          <t>61,59; 73,35</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,81; 77,67</t>
+          <t>69,61; 77,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,14; 72,64</t>
+          <t>66,15; 72,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,95; 74,3</t>
+          <t>68,95; 74,2</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,23; 82,51</t>
+          <t>75,34; 82,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,76; 77,45</t>
+          <t>72,71; 77,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,7; 79,17</t>
+          <t>74,8; 79,23</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,15; 68,2</t>
+          <t>59,74; 68,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 79,38</t>
+          <t>60,94; 80,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,02; 73,7</t>
+          <t>61,97; 74,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,79; 73,38</t>
+          <t>66,77; 73,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,44; 68,08</t>
+          <t>61,25; 67,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,73; 69,65</t>
+          <t>65,07; 69,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,06; 73,84</t>
+          <t>70,09; 74,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,34; 72,33</t>
+          <t>67,33; 72,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,16; 72,42</t>
+          <t>69,25; 72,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>57,64; 76,75</t>
+          <t>56,86; 75,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,94; 75,9</t>
+          <t>62,37; 76,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,59; 73,35</t>
+          <t>62,85; 74,85</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,61; 77,17</t>
+          <t>69,81; 77,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,15; 72,66</t>
+          <t>66,14; 72,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,95; 74,2</t>
+          <t>68,95; 74,3</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,34; 82,25</t>
+          <t>75,23; 82,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,71; 77,45</t>
+          <t>72,76; 77,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,8; 79,23</t>
+          <t>74,7; 79,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,74; 68,3</t>
+          <t>60,15; 68,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,94; 80,82</t>
+          <t>60,56; 79,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,97; 74,61</t>
+          <t>62,02; 73,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,77; 73,39</t>
+          <t>66,79; 73,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,25; 67,96</t>
+          <t>61,44; 68,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>65,07; 69,56</t>
+          <t>64,73; 69,65</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,09; 74,18</t>
+          <t>70,06; 73,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>67,33; 72,25</t>
+          <t>67,34; 72,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>69,25; 72,49</t>
+          <t>69,16; 72,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>67,12%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>69,67%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>68,51%</t>
+          <t>70,94%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,86; 75,85</t>
+          <t>68,77; 76,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62,37; 76,0</t>
+          <t>66,34; 72,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62,85; 74,85</t>
+          <t>68,62; 73,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>73,72%</t>
+          <t>81,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,68%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>71,63%</t>
+          <t>78,56%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,81; 77,67</t>
+          <t>75,37; 91,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>66,14; 72,64</t>
+          <t>72,34; 77,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,95; 74,3</t>
+          <t>74,88; 85,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>70,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76,82%</t>
+          <t>67,57%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>75,23; 82,51</t>
+          <t>59,11; 67,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,76; 77,45</t>
+          <t>60,17; 85,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74,7; 79,17</t>
+          <t>61,54; 78,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>70,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>65,87%</t>
+          <t>65,52%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>60,15; 68,2</t>
+          <t>66,92; 73,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>60,56; 79,38</t>
+          <t>46,64; 67,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,02; 73,7</t>
+          <t>56,43; 69,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>70,23%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>65,06%</t>
+          <t>68,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>67,45%</t>
+          <t>70,97%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>66,79; 73,38</t>
+          <t>70,56; 79,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,44; 68,08</t>
+          <t>64,64; 74,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>64,73; 69,65</t>
+          <t>68,27; 74,87</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>71,92%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>69,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>70,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>70,06; 73,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>67,34; 72,33</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,16; 72,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A1_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,77; 76,33</t>
+          <t>68,97; 76,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>66,34; 72,5</t>
+          <t>66,21; 72,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>68,62; 73,31</t>
+          <t>68,62; 73,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>75,37; 91,12</t>
+          <t>75,17; 90,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,34; 77,0</t>
+          <t>72,02; 77,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,88; 85,96</t>
+          <t>74,85; 85,38</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,11; 67,57</t>
+          <t>59,08; 68,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>60,17; 85,54</t>
+          <t>60,67; 87,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,54; 78,81</t>
+          <t>61,54; 79,74</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>66,92; 73,54</t>
+          <t>67,08; 73,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,64; 67,0</t>
+          <t>47,16; 66,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,43; 69,08</t>
+          <t>57,11; 68,83</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,56; 79,7</t>
+          <t>70,24; 80,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>64,64; 74,45</t>
+          <t>65,0; 74,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,27; 74,87</t>
+          <t>68,27; 74,97</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar, mareado o a punto de desmayarse es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>407709</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>407036</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>814746</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>386752; 428155</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>389155; 424341</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>788118; 842327</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1652</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>913494</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>658339</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1571833</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>842159; 1009624</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>634180; 678023</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1497658; 1708339</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>986</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>419629</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>600091</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1019720</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>391135; 451214</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>513936; 738378</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>928710; 1203372</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1546</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>600163</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>605691</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1205853</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>572368; 628860</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>465620; 660969</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1051112; 1266931</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2135</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3197</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5332</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2340996</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2271157</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>4612153</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2245141; 2563337</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2146870; 2451928</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4437255; 4872637</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>